--- a/_posts/covid_atx/TexasCOVID19CaseCountData.xlsx
+++ b/_posts/covid_atx/TexasCOVID19CaseCountData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA1381FF-9BAA-429E-81C1-1F647A1E1DEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC08A90C-4B22-4CA2-8091-F807C8E8441A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="360">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 8/11 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="360">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 8/13 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -819,7 +819,7 @@
     <t>Probable cases are not included in the total case numbers</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 8/11 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 8/13 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -867,7 +867,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 8/11 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 8/13 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -879,7 +879,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 8/11 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 8/13 at 3:00PM CST</t>
   </si>
   <si>
     <t>Molecular
@@ -926,7 +926,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 8/11 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 8/13 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -947,7 +947,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 8/10 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 8/12 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -959,7 +959,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 8/11 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 8/13 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -980,7 +980,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 8/11 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 8/13 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -989,7 +989,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 8/11 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 8/13 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1041,10 +1041,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          41,500</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 8/11 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          43,440</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 8/13 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1056,7 +1056,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 8/11 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 8/13 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1077,28 +1077,34 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 8/11 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =           8,710</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 8/11 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 8/11 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 8/13 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =           9,289</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 8/13 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 8/13 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Antigen Tests in Texas as of 8/12 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Antigen Tests</t>
+  </si>
+  <si>
+    <t>Total Number of Antigen Tests Reported (included in total test numbers)</t>
   </si>
   <si>
     <t>Number of Positive Antigen Tests Reported</t>
   </si>
   <si>
-    <t>Total Number of Antigen Tests Reported (included in total test numbers)</t>
-  </si>
-  <si>
-    <t>Antigen Tests</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antigen Tests in Texas as of 8/10 at 3:00PM CST</t>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>******</t>
   </si>
   <si>
     <t>* The total reported cases for 6/16/2020 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
@@ -1116,6 +1122,9 @@
     <t>***** Texas is reporting 5,839 new confirmed cases for Aug. 3, including 471 for Bexar County. The San Antonio Metropolitan Health District has removed some duplicate cases, leading to an overall decrease in the number of Bexar County cases. For more information, visit https://covid19.sanantonio.gov/About-COVID-19/Case-Numbers-Table-Data.</t>
   </si>
   <si>
+    <t>****** Texas is reporting 8,913 new confirmed cases for August 11. The overall statewide total was updated to include 890 cases reported by the Corpus Christi-Nueces County Public Health District stemming from a laboratory reporting backlog.</t>
+  </si>
+  <si>
     <t>July 27: DSHS is now reporting COVID-19 fatality data based on death certificates. A fatality is counted as a COVID-19 fatality when the medical certifier attests on the death certificate that COVID-19 is a cause of death.</t>
   </si>
   <si>
@@ -1126,15 +1135,6 @@
   </si>
   <si>
     <t>DSHS data reflect the date of death, and the totals for previous days will change as death certificates are filed or amended. By law, death certificates must be filed within 10 days of death and may be amended later. DSHS will continue to provide the number of newly reported fatalities each day.</t>
-  </si>
-  <si>
-    <t>*****</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>****** Texas is reporting 8,913 new confirmed cases for August 11. The overall statewide total was updated to include 890 cases reported by the Corpus Christi-Nueces County Public Health District stemming from a laboratory reporting backlog.</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1149,7 @@
     <numFmt numFmtId="172" formatCode="###,###,###,###,##0"/>
     <numFmt numFmtId="174" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1171,6 +1171,13 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF112277"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -1256,7 +1263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1293,9 +1300,6 @@
     <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1304,9 +1308,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1320,13 +1321,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1465,8 +1469,9 @@
   <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1477,11 +1482,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1499,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>2406</v>
+        <v>2437</v>
       </c>
       <c r="C3" s="4">
         <v>14</v>
@@ -1510,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C4" s="4">
         <v>7</v>
@@ -1521,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>1828</v>
+        <v>1869</v>
       </c>
       <c r="C5" s="4">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1532,10 +1537,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1543,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -1565,10 +1570,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="C9" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
@@ -1587,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
@@ -1598,7 +1603,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
@@ -1609,10 +1614,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>1375</v>
+        <v>1409</v>
       </c>
       <c r="C13" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -1631,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>1246</v>
+        <v>1303</v>
       </c>
       <c r="C15" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,10 +1647,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>3957</v>
+        <v>4071</v>
       </c>
       <c r="C16" s="4">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,10 +1658,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>35303</v>
+        <v>35673</v>
       </c>
       <c r="C17" s="4">
-        <v>806</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -1697,10 +1702,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="C21" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1708,10 +1713,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>7591</v>
+        <v>7789</v>
       </c>
       <c r="C22" s="4">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1719,10 +1724,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>4069</v>
+        <v>4107</v>
       </c>
       <c r="C23" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,10 +1757,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C26" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,10 +1768,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C27" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,10 +1790,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="C29" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,10 +1801,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>1158</v>
+        <v>1171</v>
       </c>
       <c r="C30" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,10 +1812,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C31" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,7 +1823,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C32" s="4">
         <v>3</v>
@@ -1829,10 +1834,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>16906</v>
+        <v>17316</v>
       </c>
       <c r="C33" s="4">
-        <v>454</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1840,7 +1845,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C34" s="4">
         <v>6</v>
@@ -1851,7 +1856,7 @@
         <v>36</v>
       </c>
       <c r="B35" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -1862,10 +1867,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C36" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,7 +1878,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C37" s="4">
         <v>4</v>
@@ -1884,10 +1889,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>981</v>
+        <v>1008</v>
       </c>
       <c r="C38" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,10 +1900,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>1151</v>
+        <v>1184</v>
       </c>
       <c r="C39" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1906,7 +1911,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="4">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -1917,7 +1922,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -1950,7 +1955,7 @@
         <v>45</v>
       </c>
       <c r="B44" s="4">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -1961,10 +1966,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>7833</v>
+        <v>8313</v>
       </c>
       <c r="C45" s="4">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1983,7 +1988,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
@@ -1994,10 +1999,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>1929</v>
+        <v>1993</v>
       </c>
       <c r="C48" s="4">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,7 +2010,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C49" s="4">
         <v>3</v>
@@ -2016,7 +2021,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -2027,7 +2032,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
@@ -2038,7 +2043,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="C52" s="4">
         <v>5</v>
@@ -2071,10 +2076,10 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2082,7 +2087,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2093,7 +2098,7 @@
         <v>58</v>
       </c>
       <c r="B57" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
@@ -2104,10 +2109,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C58" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2115,10 +2120,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>55255</v>
+        <v>55787</v>
       </c>
       <c r="C59" s="4">
-        <v>752</v>
+        <v>781</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,10 +2142,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="C61" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,10 +2153,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>674</v>
+        <v>702</v>
       </c>
       <c r="C62" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2170,10 +2175,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>7745</v>
+        <v>7959</v>
       </c>
       <c r="C64" s="4">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2192,10 +2197,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C66" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,10 +2219,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C68" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2225,7 +2230,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C69" s="4">
         <v>1</v>
@@ -2236,10 +2241,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>2439</v>
+        <v>2488</v>
       </c>
       <c r="C70" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2247,7 +2252,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -2258,10 +2263,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>16936</v>
+        <v>17378</v>
       </c>
       <c r="C72" s="4">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,10 +2274,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>3120</v>
+        <v>3244</v>
       </c>
       <c r="C73" s="4">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2280,10 +2285,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="C74" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2291,7 +2296,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C75" s="4">
         <v>3</v>
@@ -2302,7 +2307,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="C76" s="4">
         <v>8</v>
@@ -2313,7 +2318,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C77" s="4">
         <v>14</v>
@@ -2324,7 +2329,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -2357,10 +2362,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>10021</v>
+        <v>10487</v>
       </c>
       <c r="C81" s="4">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2379,7 +2384,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2390,10 +2395,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="C84" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2401,7 +2406,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C85" s="4">
         <v>3</v>
@@ -2412,10 +2417,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>9514</v>
+        <v>9707</v>
       </c>
       <c r="C86" s="4">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,7 +2428,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
@@ -2434,7 +2439,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C88" s="4">
         <v>6</v>
@@ -2467,10 +2472,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="C91" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2478,7 +2483,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C92" s="4">
         <v>2</v>
@@ -2489,7 +2494,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>1169</v>
+        <v>1199</v>
       </c>
       <c r="C93" s="4">
         <v>13</v>
@@ -2500,10 +2505,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>1416</v>
+        <v>1604</v>
       </c>
       <c r="C94" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2511,10 +2516,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>891</v>
+        <v>918</v>
       </c>
       <c r="C95" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2527,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>1696</v>
+        <v>1735</v>
       </c>
       <c r="C96" s="4">
         <v>56</v>
@@ -2533,10 +2538,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="C97" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2544,7 +2549,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -2555,7 +2560,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C99" s="4">
         <v>3</v>
@@ -2566,7 +2571,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2577,7 +2582,7 @@
         <v>102</v>
       </c>
       <c r="B101" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
@@ -2588,10 +2593,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>973</v>
+        <v>1090</v>
       </c>
       <c r="C102" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2599,10 +2604,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>86563</v>
+        <v>88494</v>
       </c>
       <c r="C103" s="4">
-        <v>1616</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,10 +2615,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="C104" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2621,7 +2626,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
@@ -2632,7 +2637,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -2643,10 +2648,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>5050</v>
+        <v>5083</v>
       </c>
       <c r="C107" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2654,7 +2659,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -2665,7 +2670,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="C109" s="4">
         <v>12</v>
@@ -2676,10 +2681,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>20148</v>
+        <v>20767</v>
       </c>
       <c r="C110" s="4">
-        <v>654</v>
+        <v>701</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2687,7 +2692,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C111" s="4">
         <v>7</v>
@@ -2698,7 +2703,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C112" s="4">
         <v>4</v>
@@ -2709,10 +2714,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="C113" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2720,10 +2725,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C114" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2731,7 +2736,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C115" s="4">
         <v>7</v>
@@ -2742,7 +2747,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C116" s="4">
         <v>6</v>
@@ -2753,7 +2758,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="4">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C117" s="4">
         <v>2</v>
@@ -2764,7 +2769,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>1202</v>
+        <v>1241</v>
       </c>
       <c r="C118" s="4">
         <v>21</v>
@@ -2775,7 +2780,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C119" s="4">
         <v>3</v>
@@ -2797,7 +2802,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -2808,10 +2813,10 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C122" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2822,7 +2827,7 @@
         <v>332</v>
       </c>
       <c r="C123" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2841,10 +2846,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>5977</v>
+        <v>6126</v>
       </c>
       <c r="C125" s="4">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2852,7 +2857,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C126" s="4">
         <v>1</v>
@@ -2863,10 +2868,10 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="C127" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2874,10 +2879,10 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>1980</v>
+        <v>2073</v>
       </c>
       <c r="C128" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2885,7 +2890,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2896,10 +2901,10 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C130" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2907,10 +2912,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>2289</v>
+        <v>2364</v>
       </c>
       <c r="C131" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2918,7 +2923,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C132" s="4">
         <v>4</v>
@@ -2951,7 +2956,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C135" s="4">
         <v>6</v>
@@ -2962,7 +2967,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C136" s="4">
         <v>1</v>
@@ -2984,7 +2989,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
@@ -2995,10 +3000,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C139" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,10 +3011,10 @@
         <v>141</v>
       </c>
       <c r="B140" s="4">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C140" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,7 +3033,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="C142" s="4">
         <v>18</v>
@@ -3039,10 +3044,10 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C143" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3050,10 +3055,10 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C144" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3061,10 +3066,10 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C145" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3075,7 +3080,7 @@
         <v>177</v>
       </c>
       <c r="C146" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,7 +3088,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C147" s="4">
         <v>3</v>
@@ -3094,7 +3099,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>1002</v>
+        <v>1047</v>
       </c>
       <c r="C148" s="4">
         <v>34</v>
@@ -3105,7 +3110,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="C149" s="4">
         <v>3</v>
@@ -3116,7 +3121,7 @@
         <v>151</v>
       </c>
       <c r="B150" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
@@ -3127,7 +3132,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C151" s="4">
         <v>4</v>
@@ -3160,7 +3165,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>6222</v>
+        <v>6365</v>
       </c>
       <c r="C154" s="4">
         <v>75</v>
@@ -3171,7 +3176,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C155" s="4">
         <v>4</v>
@@ -3182,7 +3187,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="C156" s="4">
         <v>2</v>
@@ -3193,7 +3198,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C157" s="4">
         <v>9</v>
@@ -3204,7 +3209,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C158" s="4">
         <v>5</v>
@@ -3215,7 +3220,7 @@
         <v>160</v>
       </c>
       <c r="B159" s="4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3226,10 +3231,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>770</v>
+        <v>807</v>
       </c>
       <c r="C160" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3237,10 +3242,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>2321</v>
+        <v>2569</v>
       </c>
       <c r="C161" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3248,7 +3253,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C162" s="4">
         <v>1</v>
@@ -3259,10 +3264,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>5031</v>
+        <v>5164</v>
       </c>
       <c r="C163" s="4">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3270,7 +3275,7 @@
         <v>165</v>
       </c>
       <c r="B164" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C164" s="4">
         <v>0</v>
@@ -3281,10 +3286,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>892</v>
+        <v>949</v>
       </c>
       <c r="C165" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3303,10 +3308,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>2676</v>
+        <v>2788</v>
       </c>
       <c r="C167" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3314,7 +3319,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C168" s="4">
         <v>3</v>
@@ -3325,7 +3330,7 @@
         <v>170</v>
       </c>
       <c r="B169" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C169" s="4">
         <v>0</v>
@@ -3336,7 +3341,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C170" s="4">
         <v>1</v>
@@ -3347,7 +3352,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C171" s="4">
         <v>2</v>
@@ -3358,10 +3363,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>6654</v>
+        <v>6820</v>
       </c>
       <c r="C172" s="4">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,7 +3374,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>1063</v>
+        <v>1077</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3380,7 +3385,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C174" s="4">
         <v>3</v>
@@ -3402,10 +3407,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>1167</v>
+        <v>1184</v>
       </c>
       <c r="C176" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,10 +3418,10 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="C177" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3435,7 +3440,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C179" s="4">
         <v>3</v>
@@ -3446,10 +3451,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>12376</v>
+        <v>13061</v>
       </c>
       <c r="C180" s="4">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3457,7 +3462,7 @@
         <v>182</v>
       </c>
       <c r="B181" s="4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -3479,10 +3484,10 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="C183" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3490,7 +3495,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="C184" s="4">
         <v>9</v>
@@ -3501,7 +3506,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C185" s="4">
         <v>18</v>
@@ -3512,7 +3517,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>1292</v>
+        <v>1366</v>
       </c>
       <c r="C186" s="4">
         <v>19</v>
@@ -3523,7 +3528,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C187" s="4">
         <v>7</v>
@@ -3534,10 +3539,10 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C188" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3545,10 +3550,10 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C189" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,10 +3561,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>3689</v>
+        <v>3731</v>
       </c>
       <c r="C190" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3567,10 +3572,10 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C191" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3578,7 +3583,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C192" s="4">
         <v>1</v>
@@ -3589,10 +3594,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>1747</v>
+        <v>1804</v>
       </c>
       <c r="C193" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3600,7 +3605,7 @@
         <v>195</v>
       </c>
       <c r="B194" s="4">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C194" s="4">
         <v>3</v>
@@ -3611,7 +3616,7 @@
         <v>196</v>
       </c>
       <c r="B195" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C195" s="4">
         <v>1</v>
@@ -3622,7 +3627,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C196" s="4">
         <v>11</v>
@@ -3633,7 +3638,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C197" s="4">
         <v>5</v>
@@ -3644,7 +3649,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C198" s="4">
         <v>4</v>
@@ -3666,7 +3671,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C200" s="4">
         <v>2</v>
@@ -3677,10 +3682,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>1031</v>
+        <v>1057</v>
       </c>
       <c r="C201" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3688,7 +3693,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C202" s="4">
         <v>2</v>
@@ -3699,7 +3704,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3721,7 +3726,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C205" s="4">
         <v>11</v>
@@ -3732,7 +3737,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C206" s="4">
         <v>8</v>
@@ -3743,10 +3748,10 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>972</v>
+        <v>1051</v>
       </c>
       <c r="C207" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3754,7 +3759,7 @@
         <v>209</v>
       </c>
       <c r="B208" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -3776,7 +3781,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="C210" s="4">
         <v>1</v>
@@ -3787,7 +3792,7 @@
         <v>212</v>
       </c>
       <c r="B211" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
@@ -3798,7 +3803,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C212" s="4">
         <v>18</v>
@@ -3809,7 +3814,7 @@
         <v>214</v>
       </c>
       <c r="B213" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
@@ -3820,10 +3825,10 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>2524</v>
+        <v>2666</v>
       </c>
       <c r="C214" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3836,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -3842,10 +3847,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>2249</v>
+        <v>2294</v>
       </c>
       <c r="C216" s="4">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3853,7 +3858,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C217" s="4">
         <v>3</v>
@@ -3864,7 +3869,7 @@
         <v>219</v>
       </c>
       <c r="B218" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
@@ -3875,7 +3880,7 @@
         <v>220</v>
       </c>
       <c r="B219" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
@@ -3886,7 +3891,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C220" s="4">
         <v>1</v>
@@ -3908,10 +3913,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>32469</v>
+        <v>33070</v>
       </c>
       <c r="C222" s="4">
-        <v>457</v>
+        <v>480</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3919,10 +3924,10 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>1130</v>
+        <v>1137</v>
       </c>
       <c r="C223" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3941,7 +3946,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C225" s="4">
         <v>2</v>
@@ -3963,7 +3968,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>1226</v>
+        <v>1250</v>
       </c>
       <c r="C227" s="4">
         <v>15</v>
@@ -3974,10 +3979,10 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>1760</v>
+        <v>1806</v>
       </c>
       <c r="C228" s="4">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3985,10 +3990,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>22953</v>
+        <v>23421</v>
       </c>
       <c r="C229" s="4">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,7 +4001,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C230" s="4">
         <v>4</v>
@@ -4018,7 +4023,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C232" s="4">
         <v>2</v>
@@ -4040,7 +4045,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="C234" s="4">
         <v>10</v>
@@ -4054,7 +4059,7 @@
         <v>1332</v>
       </c>
       <c r="C235" s="4">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4062,10 +4067,10 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="C236" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,10 +4078,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>3494</v>
+        <v>3560</v>
       </c>
       <c r="C237" s="4">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4084,10 +4089,10 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>3074</v>
+        <v>3128</v>
       </c>
       <c r="C238" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4095,7 +4100,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="C239" s="4">
         <v>5</v>
@@ -4106,7 +4111,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C240" s="4">
         <v>1</v>
@@ -4117,10 +4122,10 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="C241" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4128,10 +4133,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>8262</v>
+        <v>8814</v>
       </c>
       <c r="C242" s="4">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4139,10 +4144,10 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>815</v>
+        <v>945</v>
       </c>
       <c r="C243" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4150,7 +4155,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4161,7 +4166,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="C245" s="4">
         <v>11</v>
@@ -4172,7 +4177,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C246" s="4">
         <v>1</v>
@@ -4183,7 +4188,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="C247" s="4">
         <v>30</v>
@@ -4194,10 +4199,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>6893</v>
+        <v>7075</v>
       </c>
       <c r="C248" s="4">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4205,7 +4210,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="C249" s="4">
         <v>19</v>
@@ -4216,7 +4221,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C250" s="4">
         <v>1</v>
@@ -4227,10 +4232,10 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="C251" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,10 +4243,10 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="C252" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4249,7 +4254,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C253" s="4">
         <v>3</v>
@@ -4260,7 +4265,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C254" s="4">
         <v>5</v>
@@ -4271,10 +4276,10 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C255" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4282,7 +4287,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C256" s="4">
         <v>6</v>
@@ -4296,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="C257" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4304,18 +4309,18 @@
         <v>259</v>
       </c>
       <c r="B258" s="4">
-        <v>500620</v>
+        <v>513575</v>
       </c>
       <c r="C258" s="4">
-        <v>8710</v>
+        <v>9289</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="15" t="s">
+      <c r="A260" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B260" s="14"/>
-      <c r="C260" s="14"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4333,7 +4338,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4345,11 +4350,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4369,9 +4374,9 @@
       <c r="B3" s="11">
         <v>143</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="19">
         <f>B3/B$16</f>
-        <v>3.4457831325301206E-3</v>
+        <v>3.2918968692449355E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4379,11 +4384,11 @@
         <v>316</v>
       </c>
       <c r="B4" s="11">
-        <v>654</v>
-      </c>
-      <c r="C4" s="16">
+        <v>659</v>
+      </c>
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.5759036144578312E-2</v>
+        <v>1.5170349907918969E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4391,11 +4396,11 @@
         <v>317</v>
       </c>
       <c r="B5" s="11">
-        <v>1686</v>
-      </c>
-      <c r="C5" s="16">
+        <v>1719</v>
+      </c>
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>4.0626506024096384E-2</v>
+        <v>3.957182320441989E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4403,11 +4408,11 @@
         <v>318</v>
       </c>
       <c r="B6" s="11">
-        <v>7685</v>
-      </c>
-      <c r="C6" s="16">
+        <v>8153</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>0.18518072289156626</v>
+        <v>0.1876841620626151</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4415,11 +4420,11 @@
         <v>319</v>
       </c>
       <c r="B7" s="11">
-        <v>8414</v>
-      </c>
-      <c r="C7" s="16">
+        <v>8966</v>
+      </c>
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>0.20274698795180723</v>
+        <v>0.20639963167587477</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4427,11 +4432,11 @@
         <v>320</v>
       </c>
       <c r="B8" s="11">
-        <v>7864</v>
-      </c>
-      <c r="C8" s="16">
+        <v>8283</v>
+      </c>
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>0.18949397590361447</v>
+        <v>0.1906767955801105</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4439,11 +4444,11 @@
         <v>321</v>
       </c>
       <c r="B9" s="11">
-        <v>7114</v>
-      </c>
-      <c r="C9" s="16">
+        <v>7410</v>
+      </c>
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
-        <v>0.17142168674698796</v>
+        <v>0.17058011049723756</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4451,11 +4456,11 @@
         <v>322</v>
       </c>
       <c r="B10" s="11">
-        <v>2765</v>
-      </c>
-      <c r="C10" s="16">
+        <v>2855</v>
+      </c>
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
-        <v>6.662650602409638E-2</v>
+        <v>6.5722836095764278E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4463,11 +4468,11 @@
         <v>323</v>
       </c>
       <c r="B11" s="11">
-        <v>1950</v>
-      </c>
-      <c r="C11" s="16">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
-        <v>4.6987951807228916E-2</v>
+        <v>4.5994475138121549E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4475,11 +4480,11 @@
         <v>324</v>
       </c>
       <c r="B12" s="11">
-        <v>1157</v>
-      </c>
-      <c r="C12" s="16">
+        <v>1173</v>
+      </c>
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
-        <v>2.7879518072289156E-2</v>
+        <v>2.7002762430939225E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4487,11 +4492,11 @@
         <v>325</v>
       </c>
       <c r="B13" s="11">
-        <v>766</v>
-      </c>
-      <c r="C13" s="16">
+        <v>773</v>
+      </c>
+      <c r="C13" s="19">
         <f t="shared" si="0"/>
-        <v>1.8457831325301204E-2</v>
+        <v>1.7794659300184163E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4499,11 +4504,11 @@
         <v>326</v>
       </c>
       <c r="B14" s="11">
-        <v>1271</v>
-      </c>
-      <c r="C14" s="16">
+        <v>1277</v>
+      </c>
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
-        <v>3.0626506024096386E-2</v>
+        <v>2.9396869244935543E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4513,9 +4518,9 @@
       <c r="B15" s="11">
         <v>31</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="19">
         <f t="shared" si="0"/>
-        <v>7.4698795180722891E-4</v>
+        <v>7.1362799263351747E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4523,33 +4528,33 @@
         <v>259</v>
       </c>
       <c r="B16" s="11">
-        <v>41500</v>
-      </c>
-      <c r="C16" s="16">
+        <v>43440</v>
+      </c>
+      <c r="C16" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4569,7 +4574,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4581,11 +4586,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4603,11 +4608,11 @@
         <v>331</v>
       </c>
       <c r="B3" s="11">
-        <v>15112</v>
-      </c>
-      <c r="C3" s="16">
+        <v>15284</v>
+      </c>
+      <c r="C3" s="19">
         <f>B3/B$6</f>
-        <v>0.36414457831325303</v>
+        <v>0.35184162062615099</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4615,11 +4620,11 @@
         <v>332</v>
       </c>
       <c r="B4" s="11">
-        <v>25484</v>
-      </c>
-      <c r="C4" s="16">
+        <v>27145</v>
+      </c>
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.61407228915662648</v>
+        <v>0.62488489871086561</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4627,11 +4632,11 @@
         <v>258</v>
       </c>
       <c r="B5" s="11">
-        <v>904</v>
-      </c>
-      <c r="C5" s="16">
+        <v>1011</v>
+      </c>
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>2.1783132530120482E-2</v>
+        <v>2.3273480662983424E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4639,33 +4644,33 @@
         <v>259</v>
       </c>
       <c r="B6" s="11">
-        <v>41500</v>
-      </c>
-      <c r="C6" s="16">
+        <v>43440</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4685,7 +4690,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4697,11 +4702,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4719,11 +4724,11 @@
         <v>335</v>
       </c>
       <c r="B3" s="11">
-        <v>724</v>
-      </c>
-      <c r="C3" s="16">
+        <v>727</v>
+      </c>
+      <c r="C3" s="19">
         <f>B3/B$9</f>
-        <v>1.7445783132530122E-2</v>
+        <v>1.6735727440147331E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4731,11 +4736,11 @@
         <v>336</v>
       </c>
       <c r="B4" s="11">
-        <v>6374</v>
-      </c>
-      <c r="C4" s="16">
+        <v>6785</v>
+      </c>
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.15359036144578314</v>
+        <v>0.15619244935543278</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4743,11 +4748,11 @@
         <v>337</v>
       </c>
       <c r="B5" s="11">
-        <v>16384</v>
-      </c>
-      <c r="C5" s="16">
+        <v>17181</v>
+      </c>
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>0.39479518072289155</v>
+        <v>0.39551104972375689</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4755,11 +4760,11 @@
         <v>338</v>
       </c>
       <c r="B6" s="11">
-        <v>180</v>
-      </c>
-      <c r="C6" s="16">
+        <v>186</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>4.3373493975903616E-3</v>
+        <v>4.2817679558011046E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4767,11 +4772,11 @@
         <v>339</v>
       </c>
       <c r="B7" s="11">
-        <v>11379</v>
-      </c>
-      <c r="C7" s="16">
+        <v>12046</v>
+      </c>
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>0.27419277108433737</v>
+        <v>0.27730202578268875</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4779,11 +4784,11 @@
         <v>258</v>
       </c>
       <c r="B8" s="11">
-        <v>6459</v>
-      </c>
-      <c r="C8" s="16">
+        <v>6515</v>
+      </c>
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>0.15563855421686748</v>
+        <v>0.14997697974217311</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4791,33 +4796,33 @@
         <v>259</v>
       </c>
       <c r="B9" s="11">
-        <v>41500</v>
-      </c>
-      <c r="C9" s="16">
+        <v>43440</v>
+      </c>
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4837,7 +4842,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4849,11 +4854,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4873,9 +4878,9 @@
       <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="19">
         <f>B3/B$16</f>
-        <v>2.296211251435132E-4</v>
+        <v>2.1530842932500807E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4885,9 +4890,9 @@
       <c r="B4" s="11">
         <v>5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>5.7405281285878302E-4</v>
+        <v>5.3827107331252022E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4897,9 +4902,9 @@
       <c r="B5" s="11">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>1.0332950631458094E-3</v>
+        <v>9.6888793196253631E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4907,11 +4912,11 @@
         <v>318</v>
       </c>
       <c r="B6" s="11">
-        <v>64</v>
-      </c>
-      <c r="C6" s="16">
+        <v>66</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>7.3478760045924225E-3</v>
+        <v>7.1051781677252662E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4919,11 +4924,11 @@
         <v>319</v>
       </c>
       <c r="B7" s="11">
-        <v>177</v>
-      </c>
-      <c r="C7" s="16">
+        <v>190</v>
+      </c>
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>2.032146957520092E-2</v>
+        <v>2.0454300785875765E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4931,11 +4936,11 @@
         <v>320</v>
       </c>
       <c r="B8" s="11">
-        <v>467</v>
-      </c>
-      <c r="C8" s="16">
+        <v>495</v>
+      </c>
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>5.3616532721010336E-2</v>
+        <v>5.3288836257939495E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4943,11 +4948,11 @@
         <v>321</v>
       </c>
       <c r="B9" s="11">
-        <v>1003</v>
-      </c>
-      <c r="C9" s="16">
+        <v>1085</v>
+      </c>
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
-        <v>0.11515499425947187</v>
+        <v>0.11680482290881689</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4955,11 +4960,11 @@
         <v>322</v>
       </c>
       <c r="B10" s="11">
-        <v>811</v>
-      </c>
-      <c r="C10" s="16">
+        <v>866</v>
+      </c>
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
-        <v>9.3111366245694605E-2</v>
+        <v>9.3228549897728497E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4967,11 +4972,11 @@
         <v>323</v>
       </c>
       <c r="B11" s="11">
-        <v>992</v>
-      </c>
-      <c r="C11" s="16">
+        <v>1068</v>
+      </c>
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
-        <v>0.11389207807118255</v>
+        <v>0.11497470125955431</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4979,11 +4984,11 @@
         <v>324</v>
       </c>
       <c r="B12" s="11">
-        <v>1136</v>
-      </c>
-      <c r="C12" s="16">
+        <v>1222</v>
+      </c>
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
-        <v>0.1304247990815155</v>
+        <v>0.13155345031757992</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4991,11 +4996,11 @@
         <v>325</v>
       </c>
       <c r="B13" s="11">
-        <v>1078</v>
-      </c>
-      <c r="C13" s="16">
+        <v>1141</v>
+      </c>
+      <c r="C13" s="19">
         <f t="shared" si="0"/>
-        <v>0.12376578645235362</v>
+        <v>0.12283345892991711</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5003,11 +5008,11 @@
         <v>326</v>
       </c>
       <c r="B14" s="11">
-        <v>2966</v>
-      </c>
-      <c r="C14" s="16">
+        <v>3140</v>
+      </c>
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
-        <v>0.3405281285878301</v>
+        <v>0.33803423404026267</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5017,7 +5022,7 @@
       <c r="B15" s="11">
         <v>0</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5027,33 +5032,33 @@
         <v>259</v>
       </c>
       <c r="B16" s="11">
-        <v>8710</v>
-      </c>
-      <c r="C16" s="16">
+        <v>9289</v>
+      </c>
+      <c r="C16" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5063,7 +5068,7 @@
     <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5073,8 +5078,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5085,11 +5090,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5107,11 +5112,11 @@
         <v>331</v>
       </c>
       <c r="B3" s="11">
-        <v>3554</v>
-      </c>
-      <c r="C3" s="16">
+        <v>3785</v>
+      </c>
+      <c r="C3" s="19">
         <f>B3/B$6</f>
-        <v>0.40803673938002294</v>
+        <v>0.40747120249757779</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5119,11 +5124,11 @@
         <v>332</v>
       </c>
       <c r="B4" s="11">
-        <v>5156</v>
-      </c>
-      <c r="C4" s="16">
+        <v>5504</v>
+      </c>
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.59196326061997706</v>
+        <v>0.59252879750242227</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5133,7 +5138,7 @@
       <c r="B5" s="11">
         <v>0</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5143,33 +5148,33 @@
         <v>259</v>
       </c>
       <c r="B6" s="11">
-        <v>8710</v>
-      </c>
-      <c r="C6" s="16">
+        <v>9289</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5189,7 +5194,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -5201,11 +5206,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5223,11 +5228,11 @@
         <v>335</v>
       </c>
       <c r="B3" s="11">
-        <v>199</v>
-      </c>
-      <c r="C3" s="16">
+        <v>212</v>
+      </c>
+      <c r="C3" s="19">
         <f>B3/B$9</f>
-        <v>2.2847301951779565E-2</v>
+        <v>2.2822693508450856E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5235,11 +5240,11 @@
         <v>336</v>
       </c>
       <c r="B4" s="11">
-        <v>1107</v>
-      </c>
-      <c r="C4" s="16">
+        <v>1174</v>
+      </c>
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.12709529276693457</v>
+        <v>0.12638604801377973</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5247,11 +5252,11 @@
         <v>337</v>
       </c>
       <c r="B5" s="11">
-        <v>4532</v>
-      </c>
-      <c r="C5" s="16">
+        <v>4879</v>
+      </c>
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>0.52032146957520087</v>
+        <v>0.52524491333835721</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5259,11 +5264,11 @@
         <v>338</v>
       </c>
       <c r="B6" s="11">
-        <v>59</v>
-      </c>
-      <c r="C6" s="16">
+        <v>62</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>6.7738231917336394E-3</v>
+        <v>6.6745613090752505E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5271,11 +5276,11 @@
         <v>339</v>
       </c>
       <c r="B7" s="11">
-        <v>2809</v>
-      </c>
-      <c r="C7" s="16">
+        <v>2958</v>
+      </c>
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>0.32250287026406427</v>
+        <v>0.31844116697168695</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5285,9 +5290,9 @@
       <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>4.5924225028702641E-4</v>
+        <v>4.3061685865001615E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -5295,33 +5300,33 @@
         <v>259</v>
       </c>
       <c r="B9" s="11">
-        <v>8710</v>
-      </c>
-      <c r="C9" s="16">
+        <v>9289</v>
+      </c>
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5337,12 +5342,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A172"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5355,24 +5360,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5485,7 +5490,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -5631,7 +5636,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6985,13 +6990,13 @@
         <v>53449</v>
       </c>
       <c r="D83" s="7">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="E83" s="7">
         <v>1181</v>
       </c>
       <c r="F83" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7005,7 +7010,7 @@
         <v>54509</v>
       </c>
       <c r="D84" s="7">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="E84" s="7">
         <v>1060</v>
@@ -7025,7 +7030,7 @@
         <v>55348</v>
       </c>
       <c r="D85" s="7">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="E85" s="7">
         <v>839</v>
@@ -7045,7 +7050,7 @@
         <v>55971</v>
       </c>
       <c r="D86" s="7">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="E86" s="7">
         <v>623</v>
@@ -7065,7 +7070,7 @@
         <v>56560</v>
       </c>
       <c r="D87" s="7">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="E87" s="7">
         <v>589</v>
@@ -7085,13 +7090,13 @@
         <v>57921</v>
       </c>
       <c r="D88" s="7">
-        <v>1791</v>
+        <v>1793</v>
       </c>
       <c r="E88" s="7">
         <v>1361</v>
       </c>
       <c r="F88" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7105,7 +7110,7 @@
         <v>59776</v>
       </c>
       <c r="D89" s="7">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="E89" s="7">
         <v>1855</v>
@@ -7125,7 +7130,7 @@
         <v>61006</v>
       </c>
       <c r="D90" s="7">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="E90" s="7">
         <v>1230</v>
@@ -7145,7 +7150,7 @@
         <v>62338</v>
       </c>
       <c r="D91" s="7">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="E91" s="7">
         <v>1332</v>
@@ -7165,7 +7170,7 @@
         <v>64287</v>
       </c>
       <c r="D92" s="7">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="E92" s="7">
         <v>1949</v>
@@ -7185,7 +7190,7 @@
         <v>64880</v>
       </c>
       <c r="D93" s="7">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="E93" s="7">
         <v>593</v>
@@ -7205,7 +7210,7 @@
         <v>66568</v>
       </c>
       <c r="D94" s="7">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="E94" s="7">
         <v>1688</v>
@@ -7225,7 +7230,7 @@
         <v>68271</v>
       </c>
       <c r="D95" s="7">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="E95" s="7">
         <v>1703</v>
@@ -7245,7 +7250,7 @@
         <v>69920</v>
       </c>
       <c r="D96" s="7">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E96" s="7">
         <v>1649</v>
@@ -7265,7 +7270,7 @@
         <v>71613</v>
       </c>
       <c r="D97" s="7">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="E97" s="7">
         <v>1693</v>
@@ -7285,7 +7290,7 @@
         <v>73553</v>
       </c>
       <c r="D98" s="7">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="E98" s="7">
         <v>1940</v>
@@ -7305,7 +7310,7 @@
         <v>74978</v>
       </c>
       <c r="D99" s="7">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="E99" s="7">
         <v>1425</v>
@@ -7325,7 +7330,7 @@
         <v>75616</v>
       </c>
       <c r="D100" s="7">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="E100" s="7">
         <v>638</v>
@@ -7345,7 +7350,7 @@
         <v>77253</v>
       </c>
       <c r="D101" s="7">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="E101" s="7">
         <v>1637</v>
@@ -7365,13 +7370,13 @@
         <v>79757</v>
       </c>
       <c r="D102" s="7">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="E102" s="7">
         <v>2504</v>
       </c>
       <c r="F102" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7385,7 +7390,7 @@
         <v>81583</v>
       </c>
       <c r="D103" s="7">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="E103" s="7">
         <v>1826</v>
@@ -7405,7 +7410,7 @@
         <v>83680</v>
       </c>
       <c r="D104" s="7">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="E104" s="7">
         <v>2097</v>
@@ -7425,7 +7430,7 @@
         <v>86011</v>
       </c>
       <c r="D105" s="7">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="E105" s="7">
         <v>2331</v>
@@ -7445,7 +7450,7 @@
         <v>87854</v>
       </c>
       <c r="D106" s="7">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="E106" s="7">
         <v>1843</v>
@@ -7465,7 +7470,7 @@
         <v>89108</v>
       </c>
       <c r="D107" s="7">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="E107" s="7">
         <v>1254</v>
@@ -7485,7 +7490,7 @@
         <v>93206</v>
       </c>
       <c r="D108" s="7">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="E108" s="7">
         <v>2622</v>
@@ -7505,7 +7510,7 @@
         <v>96335</v>
       </c>
       <c r="D109" s="7">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="E109" s="7">
         <v>3129</v>
@@ -7525,7 +7530,7 @@
         <v>99851</v>
       </c>
       <c r="D110" s="7">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="E110" s="7">
         <v>3516</v>
@@ -7545,7 +7550,7 @@
         <v>103305</v>
       </c>
       <c r="D111" s="7">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="E111" s="7">
         <v>3454</v>
@@ -7565,7 +7570,7 @@
         <v>107735</v>
       </c>
       <c r="D112" s="7">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="E112" s="7">
         <v>4430</v>
@@ -7585,7 +7590,7 @@
         <v>111601</v>
       </c>
       <c r="D113" s="7">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="E113" s="7">
         <v>3866</v>
@@ -7605,7 +7610,7 @@
         <v>114881</v>
       </c>
       <c r="D114" s="7">
-        <v>2625</v>
+        <v>2628</v>
       </c>
       <c r="E114" s="7">
         <v>3280</v>
@@ -7625,7 +7630,7 @@
         <v>120370</v>
       </c>
       <c r="D115" s="7">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="E115" s="7">
         <v>5489</v>
@@ -7645,7 +7650,7 @@
         <v>125921</v>
       </c>
       <c r="D116" s="7">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="E116" s="7">
         <v>5551</v>
@@ -7665,13 +7670,13 @@
         <v>131917</v>
       </c>
       <c r="D117" s="7">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="E117" s="7">
         <v>5996</v>
       </c>
       <c r="F117" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7685,7 +7690,7 @@
         <v>137624</v>
       </c>
       <c r="D118" s="7">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="E118" s="7">
         <v>5707</v>
@@ -7705,7 +7710,7 @@
         <v>143366</v>
       </c>
       <c r="D119" s="7">
-        <v>2937</v>
+        <v>2941</v>
       </c>
       <c r="E119" s="7">
         <v>5742</v>
@@ -7725,7 +7730,7 @@
         <v>148723</v>
       </c>
       <c r="D120" s="7">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="E120" s="7">
         <v>5357</v>
@@ -7745,7 +7750,7 @@
         <v>153011</v>
       </c>
       <c r="D121" s="7">
-        <v>3110</v>
+        <v>3114</v>
       </c>
       <c r="E121" s="7">
         <v>4288</v>
@@ -7765,13 +7770,13 @@
         <v>159986</v>
       </c>
       <c r="D122" s="7">
-        <v>3198</v>
+        <v>3203</v>
       </c>
       <c r="E122" s="7">
         <v>6975</v>
       </c>
       <c r="F122" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7785,13 +7790,13 @@
         <v>168062</v>
       </c>
       <c r="D123" s="7">
-        <v>3290</v>
+        <v>3296</v>
       </c>
       <c r="E123" s="7">
         <v>8076</v>
       </c>
       <c r="F123" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7805,7 +7810,7 @@
         <v>175977</v>
       </c>
       <c r="D124" s="7">
-        <v>3404</v>
+        <v>3410</v>
       </c>
       <c r="E124" s="7">
         <v>7915</v>
@@ -7825,13 +7830,13 @@
         <v>183532</v>
       </c>
       <c r="D125" s="7">
-        <v>3532</v>
+        <v>3540</v>
       </c>
       <c r="E125" s="7">
         <v>7555</v>
       </c>
       <c r="F125" s="7">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7845,13 +7850,13 @@
         <v>191790</v>
       </c>
       <c r="D126" s="7">
-        <v>3665</v>
+        <v>3675</v>
       </c>
       <c r="E126" s="7">
         <v>8258</v>
       </c>
       <c r="F126" s="7">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7865,13 +7870,13 @@
         <v>195239</v>
       </c>
       <c r="D127" s="7">
-        <v>3786</v>
+        <v>3799</v>
       </c>
       <c r="E127" s="7">
         <v>3449</v>
       </c>
       <c r="F127" s="7">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7885,13 +7890,13 @@
         <v>200557</v>
       </c>
       <c r="D128" s="7">
-        <v>3922</v>
+        <v>3937</v>
       </c>
       <c r="E128" s="7">
         <v>5318</v>
       </c>
       <c r="F128" s="7">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7905,13 +7910,13 @@
         <v>210585</v>
       </c>
       <c r="D129" s="7">
-        <v>4076</v>
+        <v>4094</v>
       </c>
       <c r="E129" s="7">
         <v>10028</v>
       </c>
       <c r="F129" s="7">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7925,13 +7930,13 @@
         <v>220564</v>
       </c>
       <c r="D130" s="7">
-        <v>4249</v>
+        <v>4271</v>
       </c>
       <c r="E130" s="7">
         <v>9979</v>
       </c>
       <c r="F130" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7945,7 +7950,7 @@
         <v>230346</v>
       </c>
       <c r="D131" s="7">
-        <v>4410</v>
+        <v>4432</v>
       </c>
       <c r="E131" s="7">
         <v>9782</v>
@@ -7965,13 +7970,13 @@
         <v>240111</v>
       </c>
       <c r="D132" s="7">
-        <v>4595</v>
+        <v>4619</v>
       </c>
       <c r="E132" s="7">
         <v>9765</v>
       </c>
       <c r="F132" s="7">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7985,13 +7990,13 @@
         <v>250462</v>
       </c>
       <c r="D133" s="7">
-        <v>4779</v>
+        <v>4806</v>
       </c>
       <c r="E133" s="7">
         <v>10351</v>
       </c>
       <c r="F133" s="7">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8005,13 +8010,13 @@
         <v>258658</v>
       </c>
       <c r="D134" s="7">
-        <v>4982</v>
+        <v>5010</v>
       </c>
       <c r="E134" s="7">
         <v>8196</v>
       </c>
       <c r="F134" s="7">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8025,13 +8030,13 @@
         <v>264313</v>
       </c>
       <c r="D135" s="7">
-        <v>5182</v>
+        <v>5212</v>
       </c>
       <c r="E135" s="7">
         <v>5655</v>
       </c>
       <c r="F135" s="7">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8045,13 +8050,13 @@
         <v>271574</v>
       </c>
       <c r="D136" s="7">
-        <v>5404</v>
+        <v>5437</v>
       </c>
       <c r="E136" s="7">
         <v>10745</v>
       </c>
       <c r="F136" s="7">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8065,13 +8070,13 @@
         <v>282365</v>
       </c>
       <c r="D137" s="7">
-        <v>5621</v>
+        <v>5658</v>
       </c>
       <c r="E137" s="7">
         <v>10791</v>
       </c>
       <c r="F137" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8085,13 +8090,13 @@
         <v>292656</v>
       </c>
       <c r="D138" s="7">
-        <v>5842</v>
+        <v>5885</v>
       </c>
       <c r="E138" s="7">
         <v>10291</v>
       </c>
       <c r="F138" s="7">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8105,13 +8110,13 @@
         <v>307572</v>
       </c>
       <c r="D139" s="7">
-        <v>6040</v>
+        <v>6091</v>
       </c>
       <c r="E139" s="7">
         <v>10256</v>
       </c>
       <c r="F139" s="7">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8125,13 +8130,13 @@
         <v>317730</v>
       </c>
       <c r="D140" s="7">
-        <v>6221</v>
+        <v>6276</v>
       </c>
       <c r="E140" s="7">
         <v>10158</v>
       </c>
       <c r="F140" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8145,13 +8150,13 @@
         <v>325030</v>
       </c>
       <c r="D141" s="7">
-        <v>6417</v>
+        <v>6477</v>
       </c>
       <c r="E141" s="7">
         <v>7300</v>
       </c>
       <c r="F141" s="7">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8165,13 +8170,13 @@
         <v>332434</v>
       </c>
       <c r="D142" s="7">
-        <v>6623</v>
+        <v>6694</v>
       </c>
       <c r="E142" s="7">
         <v>7404</v>
       </c>
       <c r="F142" s="7">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8185,13 +8190,13 @@
         <v>341739</v>
       </c>
       <c r="D143" s="7">
-        <v>6822</v>
+        <v>6906</v>
       </c>
       <c r="E143" s="7">
         <v>9305</v>
       </c>
       <c r="F143" s="7">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8205,13 +8210,13 @@
         <v>351618</v>
       </c>
       <c r="D144" s="7">
-        <v>7033</v>
+        <v>7133</v>
       </c>
       <c r="E144" s="7">
         <v>9879</v>
       </c>
       <c r="F144" s="7">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8225,13 +8230,13 @@
         <v>361125</v>
       </c>
       <c r="D145" s="7">
-        <v>7236</v>
+        <v>7358</v>
       </c>
       <c r="E145" s="7">
         <v>9507</v>
       </c>
       <c r="F145" s="7">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8245,13 +8250,13 @@
         <v>369826</v>
       </c>
       <c r="D146" s="7">
-        <v>7432</v>
+        <v>7569</v>
       </c>
       <c r="E146" s="7">
         <v>8701</v>
       </c>
       <c r="F146" s="7">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8265,13 +8270,13 @@
         <v>375846</v>
       </c>
       <c r="D147" s="7">
-        <v>7603</v>
+        <v>7756</v>
       </c>
       <c r="E147" s="7">
         <v>8112</v>
       </c>
       <c r="F147" s="7">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8285,13 +8290,13 @@
         <v>381656</v>
       </c>
       <c r="D148" s="7">
-        <v>7732</v>
+        <v>7907</v>
       </c>
       <c r="E148" s="7">
         <v>5810</v>
       </c>
       <c r="F148" s="7">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8305,13 +8310,13 @@
         <v>385923</v>
       </c>
       <c r="D149" s="7">
-        <v>7885</v>
+        <v>8073</v>
       </c>
       <c r="E149" s="7">
         <v>4267</v>
       </c>
       <c r="F149" s="7">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8325,13 +8330,13 @@
         <v>394265</v>
       </c>
       <c r="D150" s="7">
-        <v>8047</v>
+        <v>8255</v>
       </c>
       <c r="E150" s="7">
         <v>8342</v>
       </c>
       <c r="F150" s="7">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8345,13 +8350,13 @@
         <v>403307</v>
       </c>
       <c r="D151" s="7">
-        <v>8168</v>
+        <v>8401</v>
       </c>
       <c r="E151" s="7">
         <v>9042</v>
       </c>
       <c r="F151" s="7">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8365,13 +8370,13 @@
         <v>412107</v>
       </c>
       <c r="D152" s="7">
-        <v>8291</v>
+        <v>8566</v>
       </c>
       <c r="E152" s="7">
         <v>8800</v>
       </c>
       <c r="F152" s="7">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8385,13 +8390,13 @@
         <v>420946</v>
       </c>
       <c r="D153" s="7">
-        <v>8394</v>
+        <v>8708</v>
       </c>
       <c r="E153" s="7">
         <v>8839</v>
       </c>
       <c r="F153" s="7">
-        <v>103</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8405,13 +8410,13 @@
         <v>430485</v>
       </c>
       <c r="D154" s="7">
-        <v>8473</v>
+        <v>8823</v>
       </c>
       <c r="E154" s="7">
         <v>9539</v>
       </c>
       <c r="F154" s="7">
-        <v>79</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8425,18 +8430,18 @@
         <v>436711</v>
       </c>
       <c r="D155" s="7">
-        <v>8554</v>
+        <v>8932</v>
       </c>
       <c r="E155" s="7">
         <v>6226</v>
       </c>
       <c r="F155" s="7">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B156" s="6">
         <v>44046</v>
@@ -8445,13 +8450,13 @@
         <v>442014</v>
       </c>
       <c r="D156" s="7">
-        <v>8616</v>
+        <v>9024</v>
       </c>
       <c r="E156" s="7">
         <v>5839</v>
       </c>
       <c r="F156" s="7">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8465,13 +8470,13 @@
         <v>451181</v>
       </c>
       <c r="D157" s="7">
-        <v>8654</v>
+        <v>9087</v>
       </c>
       <c r="E157" s="7">
         <v>9167</v>
       </c>
       <c r="F157" s="7">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8485,13 +8490,13 @@
         <v>459887</v>
       </c>
       <c r="D158" s="7">
-        <v>8694</v>
+        <v>9161</v>
       </c>
       <c r="E158" s="7">
         <v>8706</v>
       </c>
       <c r="F158" s="7">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8505,13 +8510,13 @@
         <v>467485</v>
       </c>
       <c r="D159" s="7">
-        <v>8701</v>
+        <v>9206</v>
       </c>
       <c r="E159" s="7">
         <v>7598</v>
       </c>
       <c r="F159" s="7">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8525,13 +8530,13 @@
         <v>474524</v>
       </c>
       <c r="D160" s="7">
-        <v>8706</v>
+        <v>9240</v>
       </c>
       <c r="E160" s="7">
         <v>7039</v>
       </c>
       <c r="F160" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8545,13 +8550,13 @@
         <v>481483</v>
       </c>
       <c r="D161" s="7">
-        <v>8710</v>
+        <v>9265</v>
       </c>
       <c r="E161" s="7">
         <v>6959</v>
       </c>
       <c r="F161" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8565,17 +8570,19 @@
         <v>486362</v>
       </c>
       <c r="D162" s="7">
-        <v>8710</v>
+        <v>9283</v>
       </c>
       <c r="E162" s="7">
         <v>4879</v>
       </c>
       <c r="F162" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
+      <c r="A163" s="21" t="s">
+        <v>349</v>
+      </c>
       <c r="B163" s="6">
         <v>44053</v>
       </c>
@@ -8583,18 +8590,18 @@
         <v>490817</v>
       </c>
       <c r="D163" s="7">
-        <v>8710</v>
+        <v>9287</v>
       </c>
       <c r="E163" s="7">
         <v>4455</v>
       </c>
       <c r="F163" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="21" t="s">
-        <v>358</v>
+      <c r="A164" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="B164" s="6">
         <v>44054</v>
@@ -8602,84 +8609,121 @@
       <c r="C164" s="7">
         <v>500620</v>
       </c>
-      <c r="D164" s="7" t="s">
-        <v>274</v>
+      <c r="D164" s="7">
+        <v>9289</v>
       </c>
       <c r="E164" s="7">
         <v>8913</v>
       </c>
-      <c r="F164" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" s="22"/>
+      <c r="F164" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B165" s="6">
+        <v>44055</v>
+      </c>
+      <c r="C165" s="7">
+        <v>506820</v>
+      </c>
+      <c r="D165" s="7">
+        <v>9289</v>
+      </c>
+      <c r="E165" s="7">
+        <v>6200</v>
+      </c>
+      <c r="F165" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="15" t="s">
+      <c r="A166" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B166" s="6">
+        <v>44056</v>
+      </c>
+      <c r="C166" s="7">
+        <v>513575</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E166" s="7">
+        <v>6755</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-    </row>
-    <row r="167" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="12" t="s">
-        <v>349</v>
-      </c>
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
     </row>
     <row r="169" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="23" t="s">
+      <c r="A169" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="23" t="s">
+      <c r="A170" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="23" t="s">
+      <c r="A171" s="22" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="23" t="s">
+      <c r="A172" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="12" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A166:F166"/>
+    <mergeCell ref="A168:F168"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8692,7 +8736,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8703,10 +8747,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8718,17 +8762,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>358311.6</v>
+        <v>375759.6</v>
       </c>
       <c r="B3" s="8">
-        <v>133598</v>
+        <v>128526.39999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8742,37 +8786,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="12" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8790,7 +8833,7 @@
       <c r="E2" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>283</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -8819,7 +8862,7 @@
       <c r="E3" s="8">
         <v>63751</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <v>0.1056</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -8848,7 +8891,7 @@
       <c r="E4" s="8">
         <v>70938</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -8877,7 +8920,7 @@
       <c r="E5" s="8">
         <v>85357</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -8906,7 +8949,7 @@
       <c r="E6" s="8">
         <v>88649</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <v>0.1094</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -8935,7 +8978,7 @@
       <c r="E7" s="8">
         <v>96258</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>0.11070000000000001</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -8964,7 +9007,7 @@
       <c r="E8" s="8">
         <v>106134</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <v>0.100351636462</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -8993,7 +9036,7 @@
       <c r="E9" s="8">
         <v>115918</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="16">
         <v>0.1055125178708</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -9022,7 +9065,7 @@
       <c r="E10" s="8">
         <v>120533</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>0.11360000000000001</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -9051,7 +9094,7 @@
       <c r="E11" s="8">
         <v>124553</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>0.12479999999999999</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -9080,7 +9123,7 @@
       <c r="E12" s="8">
         <v>133226</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>0.1386</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -9109,7 +9152,7 @@
       <c r="E13" s="8">
         <v>146467</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="16">
         <v>0.1101</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -9138,7 +9181,7 @@
       <c r="E14" s="8">
         <v>151810</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <v>0.1105</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -9167,7 +9210,7 @@
       <c r="E15" s="8">
         <v>158547</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>0.1188</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -9196,7 +9239,7 @@
       <c r="E16" s="8">
         <v>169536</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <v>0.10630000000000001</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -9225,7 +9268,7 @@
       <c r="E17" s="8">
         <v>176239</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="16">
         <v>0.1023</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -9254,7 +9297,7 @@
       <c r="E18" s="8">
         <v>182710</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <v>9.35E-2</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -9283,7 +9326,7 @@
       <c r="E19" s="8">
         <v>190394</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="G19" s="8" t="s">
@@ -9312,7 +9355,7 @@
       <c r="E20" s="8">
         <v>205399</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -9341,7 +9384,7 @@
       <c r="E21" s="8">
         <v>216783</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -9370,7 +9413,7 @@
       <c r="E22" s="8">
         <v>225078</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -9399,7 +9442,7 @@
       <c r="E23" s="8">
         <v>242547</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -9428,7 +9471,7 @@
       <c r="E24" s="8">
         <v>262816</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -9457,7 +9500,7 @@
       <c r="E25" s="8">
         <v>276021</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -9486,7 +9529,7 @@
       <c r="E26" s="8">
         <v>290517</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -9515,7 +9558,7 @@
       <c r="E27" s="8">
         <v>300384</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="G27" s="8" t="s">
@@ -9544,7 +9587,7 @@
       <c r="E28" s="8">
         <v>314790</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>6.10670666381E-2</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -9573,7 +9616,7 @@
       <c r="E29" s="8">
         <v>330300</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="G29" s="8" t="s">
@@ -9602,7 +9645,7 @@
       <c r="E30" s="8">
         <v>351775</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="G30" s="8" t="s">
@@ -9631,7 +9674,7 @@
       <c r="E31" s="8">
         <v>380648</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="16">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="G31" s="8" t="s">
@@ -9660,7 +9703,7 @@
       <c r="E32" s="8">
         <v>390560</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="G32" s="8" t="s">
@@ -9689,7 +9732,7 @@
       <c r="E33" s="8">
         <v>407398</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -9718,7 +9761,7 @@
       <c r="E34" s="8">
         <v>427210</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="G34" s="8" t="s">
@@ -9747,7 +9790,7 @@
       <c r="E35" s="8">
         <v>438938</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="G35" s="8" t="s">
@@ -9776,7 +9819,7 @@
       <c r="E36" s="8">
         <v>455162</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -9805,7 +9848,7 @@
       <c r="E37" s="8">
         <v>477118</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="G37" s="8" t="s">
@@ -9834,7 +9877,7 @@
       <c r="E38" s="8">
         <v>489294</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="G38" s="8" t="s">
@@ -9863,7 +9906,7 @@
       <c r="E39" s="8">
         <v>513978</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="16">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="G39" s="8" t="s">
@@ -9892,7 +9935,7 @@
       <c r="E40" s="8">
         <v>525697</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="16">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="G40" s="8" t="s">
@@ -9921,7 +9964,7 @@
       <c r="E41" s="8">
         <v>538172</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="16">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="G41" s="8" t="s">
@@ -9950,7 +9993,7 @@
       <c r="E42" s="8">
         <v>587431</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="16">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="G42" s="8" t="s">
@@ -9979,7 +10022,7 @@
       <c r="E43" s="8">
         <v>623284</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="16">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="G43" s="8" t="s">
@@ -10008,7 +10051,7 @@
       <c r="E44" s="8">
         <v>645992</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="16">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="G44" s="8" t="s">
@@ -10037,7 +10080,7 @@
       <c r="E45" s="8">
         <v>678471</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="16">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="G45" s="8">
@@ -10066,7 +10109,7 @@
       <c r="E46" s="8">
         <v>693276</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="16">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="G46" s="8">
@@ -10095,7 +10138,7 @@
       <c r="E47" s="8">
         <v>723013</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="16">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="G47" s="8">
@@ -10124,7 +10167,7 @@
       <c r="E48" s="8">
         <v>744937</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="16">
         <v>4.7E-2</v>
       </c>
       <c r="G48" s="8">
@@ -10153,7 +10196,7 @@
       <c r="E49" s="8">
         <v>770241</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="16">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="G49" s="8">
@@ -10182,7 +10225,7 @@
       <c r="E50" s="8">
         <v>800433</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="16">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="G50" s="8">
@@ -10211,7 +10254,7 @@
       <c r="E51" s="8">
         <v>834437</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="16">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="G51" s="8">
@@ -10240,7 +10283,7 @@
       <c r="E52" s="8">
         <v>870935</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="16" t="s">
         <v>274</v>
       </c>
       <c r="G52" s="8" t="s">
@@ -10269,7 +10312,7 @@
       <c r="E53" s="8">
         <v>886354</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="16">
         <v>4.87E-2</v>
       </c>
       <c r="G53" s="8">
@@ -10298,7 +10341,7 @@
       <c r="E54" s="8">
         <v>906074</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="16">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="G54" s="8">
@@ -10327,7 +10370,7 @@
       <c r="E55" s="8">
         <v>943239</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="16">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="G55" s="8">
@@ -10356,7 +10399,7 @@
       <c r="E56" s="8">
         <v>961861</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="16">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="G56" s="8">
@@ -10385,7 +10428,7 @@
       <c r="E57" s="8">
         <v>989994</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="16">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="G57" s="8">
@@ -10414,7 +10457,7 @@
       <c r="E58" s="8">
         <v>1027449</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="16">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="G58" s="8">
@@ -10443,7 +10486,7 @@
       <c r="E59" s="8">
         <v>1054793</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="16" t="s">
         <v>274</v>
       </c>
       <c r="G59" s="8" t="s">
@@ -10472,7 +10515,7 @@
       <c r="E60" s="8">
         <v>1073491</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="16">
         <v>5.43810873784E-2</v>
       </c>
       <c r="G60" s="8">
@@ -10501,7 +10544,7 @@
       <c r="E61" s="8">
         <v>1093676</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="16">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="G61" s="8">
@@ -10530,7 +10573,7 @@
       <c r="E62" s="8">
         <v>1117274</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="16">
         <v>6.6199999999999995E-2</v>
       </c>
       <c r="G62" s="8">
@@ -10559,7 +10602,7 @@
       <c r="E63" s="8">
         <v>1150868</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="16">
         <v>6.2600000000000003E-2</v>
       </c>
       <c r="G63" s="8">
@@ -10588,7 +10631,7 @@
       <c r="E64" s="8">
         <v>1174948</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="16">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="G64" s="8">
@@ -10617,7 +10660,7 @@
       <c r="E65" s="8">
         <v>1209187</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="16">
         <v>6.4399999999999999E-2</v>
       </c>
       <c r="G65" s="8">
@@ -10646,7 +10689,7 @@
       <c r="E66" s="8">
         <v>1218955</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="16">
         <v>0.08</v>
       </c>
       <c r="G66" s="8">
@@ -10675,7 +10718,7 @@
       <c r="E67" s="8">
         <v>1255899</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="16">
         <v>7.11381708088E-2</v>
       </c>
       <c r="G67" s="8">
@@ -10704,7 +10747,7 @@
       <c r="E68" s="8">
         <v>1286139</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="16">
         <v>6.6600000000000006E-2</v>
       </c>
       <c r="G68" s="8">
@@ -10733,7 +10776,7 @@
       <c r="E69" s="8">
         <v>1302049</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="16">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="G69" s="8">
@@ -10762,7 +10805,7 @@
       <c r="E70" s="8">
         <v>1348893</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="16">
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="G70" s="8">
@@ -10791,7 +10834,7 @@
       <c r="E71" s="8">
         <v>1370131</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="16">
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="G71" s="8">
@@ -10820,7 +10863,7 @@
       <c r="E72" s="8">
         <v>1404369</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="16">
         <v>7.22E-2</v>
       </c>
       <c r="G72" s="8">
@@ -10849,7 +10892,7 @@
       <c r="E73" s="8">
         <v>1442950</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="16">
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="G73" s="8">
@@ -10878,7 +10921,7 @@
       <c r="E74" s="8">
         <v>1463851</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="16">
         <v>6.6219239373599997E-2</v>
       </c>
       <c r="G74" s="8">
@@ -10907,7 +10950,7 @@
       <c r="E75" s="8">
         <v>1499015</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="16">
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="G75" s="8">
@@ -10936,7 +10979,7 @@
       <c r="E76" s="8">
         <v>1522434</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="16">
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="G76" s="8">
@@ -10965,7 +11008,7 @@
       <c r="E77" s="8">
         <v>1560537</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="16">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G77" s="8">
@@ -10994,7 +11037,7 @@
       <c r="E78" s="8">
         <v>1576925</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="16">
         <v>8.5257188117199997E-2</v>
       </c>
       <c r="G78" s="8">
@@ -11023,7 +11066,7 @@
       <c r="E79" s="8">
         <v>1622851</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="16">
         <v>8.9399999999999993E-2</v>
       </c>
       <c r="G79" s="8">
@@ -11052,7 +11095,7 @@
       <c r="E80" s="8">
         <v>1690124</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="16">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="G80" s="8">
@@ -11081,7 +11124,7 @@
       <c r="E81" s="8">
         <v>1715177</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="16">
         <v>9.5100000000000004E-2</v>
       </c>
       <c r="G81" s="8">
@@ -11110,7 +11153,7 @@
       <c r="E82" s="8">
         <v>1767701</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="16">
         <v>9.64E-2</v>
       </c>
       <c r="G82" s="8">
@@ -11139,7 +11182,7 @@
       <c r="E83" s="8">
         <v>1805642</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="16">
         <v>0.1042</v>
       </c>
       <c r="G83" s="8">
@@ -11168,7 +11211,7 @@
       <c r="E84" s="8">
         <v>1836037</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="16">
         <v>0.1176</v>
       </c>
       <c r="G84" s="8">
@@ -11197,7 +11240,7 @@
       <c r="E85" s="8">
         <v>1875197</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="16">
         <v>0.1173</v>
       </c>
       <c r="G85" s="8">
@@ -11226,7 +11269,7 @@
       <c r="E86" s="8">
         <v>1903661</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="16">
         <v>0.1323</v>
       </c>
       <c r="G86" s="8">
@@ -11255,7 +11298,7 @@
       <c r="E87" s="8">
         <v>1959617</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="16">
         <v>0.1431</v>
       </c>
       <c r="G87" s="8">
@@ -11284,7 +11327,7 @@
       <c r="E88" s="8">
         <v>2006724</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="16">
         <v>0.13739999999999999</v>
       </c>
       <c r="G88" s="8">
@@ -11313,7 +11356,7 @@
       <c r="E89" s="8">
         <v>2061939</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="16">
         <v>0.14019999999999999</v>
       </c>
       <c r="G89" s="8">
@@ -11342,7 +11385,7 @@
       <c r="E90" s="8">
         <v>2119036</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="16">
         <v>0.1358</v>
       </c>
       <c r="G90" s="8">
@@ -11371,7 +11414,7 @@
       <c r="E91" s="8">
         <v>2174548</v>
       </c>
-      <c r="F91" s="18">
+      <c r="F91" s="16">
         <v>0.13320000000000001</v>
       </c>
       <c r="G91" s="8">
@@ -11400,7 +11443,7 @@
       <c r="E92" s="8">
         <v>2212947</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="16">
         <v>0.13919999999999999</v>
       </c>
       <c r="G92" s="8">
@@ -11429,7 +11472,7 @@
       <c r="E93" s="8">
         <v>2273591</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="16">
         <v>0.13150000000000001</v>
       </c>
       <c r="G93" s="8">
@@ -11458,7 +11501,7 @@
       <c r="E94" s="8">
         <v>2338098</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="16">
         <v>0.13519999999999999</v>
       </c>
       <c r="G94" s="8">
@@ -11487,7 +11530,7 @@
       <c r="E95" s="8">
         <v>2371709</v>
       </c>
-      <c r="F95" s="18">
+      <c r="F95" s="16">
         <v>0.13500000000000001</v>
       </c>
       <c r="G95" s="8">
@@ -11516,7 +11559,7 @@
       <c r="E96" s="8">
         <v>2431861</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="16">
         <v>0.1351</v>
       </c>
       <c r="G96" s="8">
@@ -11545,7 +11588,7 @@
       <c r="E97" s="8">
         <v>2471029</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="16">
         <v>0.15029999999999999</v>
       </c>
       <c r="G97" s="8">
@@ -11574,7 +11617,7 @@
       <c r="E98" s="8">
         <v>2526940</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="16">
         <v>0.15559999999999999</v>
       </c>
       <c r="G98" s="8">
@@ -11603,7 +11646,7 @@
       <c r="E99" s="8">
         <v>2603903</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="16">
         <v>0.14460000000000001</v>
       </c>
       <c r="G99" s="8">
@@ -11632,7 +11675,7 @@
       <c r="E100" s="8">
         <v>2644496</v>
       </c>
-      <c r="F100" s="18">
+      <c r="F100" s="16">
         <v>0.15809999999999999</v>
       </c>
       <c r="G100" s="8">
@@ -11661,7 +11704,7 @@
       <c r="E101" s="8">
         <v>2710290</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="16">
         <v>0.1633</v>
       </c>
       <c r="G101" s="8">
@@ -11690,7 +11733,7 @@
       <c r="E102" s="8">
         <v>2757859</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="16">
         <v>0.16850000000000001</v>
       </c>
       <c r="G102" s="8">
@@ -11719,7 +11762,7 @@
       <c r="E103" s="8">
         <v>2820803</v>
       </c>
-      <c r="F103" s="18">
+      <c r="F103" s="16">
         <v>0.16889999999999999</v>
       </c>
       <c r="G103" s="8">
@@ -11748,7 +11791,7 @@
       <c r="E104" s="8">
         <v>2864541</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="16">
         <v>0.1681</v>
       </c>
       <c r="G104" s="8">
@@ -11777,7 +11820,7 @@
       <c r="E105" s="8">
         <v>2924288</v>
       </c>
-      <c r="F105" s="18">
+      <c r="F105" s="16">
         <v>0.16889999999999999</v>
       </c>
       <c r="G105" s="8">
@@ -11806,7 +11849,7 @@
       <c r="E106" s="8">
         <v>2992102</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="16">
         <v>0.17430000000000001</v>
       </c>
       <c r="G106" s="8">
@@ -11835,7 +11878,7 @@
       <c r="E107" s="8">
         <v>3067620</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="16">
         <v>0.1605</v>
       </c>
       <c r="G107" s="8">
@@ -11864,7 +11907,7 @@
       <c r="E108" s="8">
         <v>3153623</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="16">
         <v>0.15029999999999999</v>
       </c>
       <c r="G108" s="8">
@@ -11893,7 +11936,7 @@
       <c r="E109" s="8">
         <v>3207857</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="16">
         <v>0.1467</v>
       </c>
       <c r="G109" s="8">
@@ -11922,7 +11965,7 @@
       <c r="E110" s="8">
         <v>3269897</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="16">
         <v>0.15049999999999999</v>
       </c>
       <c r="G110" s="8">
@@ -11951,7 +11994,7 @@
       <c r="E111" s="8">
         <v>3331844</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="16">
         <v>0.14180000000000001</v>
       </c>
       <c r="G111" s="8">
@@ -11980,7 +12023,7 @@
       <c r="E112" s="8">
         <v>3396677</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="16">
         <v>0.13900000000000001</v>
       </c>
       <c r="G112" s="8">
@@ -12009,7 +12052,7 @@
       <c r="E113" s="8">
         <v>3465070</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="16">
         <v>0.13730000000000001</v>
       </c>
       <c r="G113" s="8">
@@ -12038,7 +12081,7 @@
       <c r="E114" s="8">
         <v>3539452</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F114" s="16">
         <v>0.13439999999999999</v>
       </c>
       <c r="G114" s="8">
@@ -12067,7 +12110,7 @@
       <c r="E115" s="8">
         <v>3604509</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="16">
         <v>0.13758337884560001</v>
       </c>
       <c r="G115" s="8">
@@ -12096,7 +12139,7 @@
       <c r="E116" s="8">
         <v>3664679</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="16">
         <v>0.13220000000000001</v>
       </c>
       <c r="G116" s="8">
@@ -12125,7 +12168,7 @@
       <c r="E117" s="8">
         <v>3714821</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="16">
         <v>0.1283</v>
       </c>
       <c r="G117" s="8">
@@ -12154,7 +12197,7 @@
       <c r="E118" s="8">
         <v>3777263</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="16">
         <v>0.1255</v>
       </c>
       <c r="G118" s="8">
@@ -12183,7 +12226,7 @@
       <c r="E119" s="8">
         <v>3849040</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="16">
         <v>0.12089999999999999</v>
       </c>
       <c r="G119" s="8">
@@ -12212,7 +12255,7 @@
       <c r="E120" s="8">
         <v>3911270</v>
       </c>
-      <c r="F120" s="18">
+      <c r="F120" s="16">
         <v>0.1212</v>
       </c>
       <c r="G120" s="8">
@@ -12241,7 +12284,7 @@
       <c r="E121" s="8">
         <v>3990030</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="16">
         <v>0.1205</v>
       </c>
       <c r="G121" s="8">
@@ -12270,7 +12313,7 @@
       <c r="E122" s="8">
         <v>4028966</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="16">
         <v>0.13120000000000001</v>
       </c>
       <c r="G122" s="8">
@@ -12299,7 +12342,7 @@
       <c r="E123" s="8">
         <v>4078363</v>
       </c>
-      <c r="F123" s="18">
+      <c r="F123" s="16">
         <v>0.13570238400410001</v>
       </c>
       <c r="G123" s="8">
@@ -12328,7 +12371,7 @@
       <c r="E124" s="8">
         <v>4143342</v>
       </c>
-      <c r="F124" s="18">
+      <c r="F124" s="16">
         <v>0.13880000000000001</v>
       </c>
       <c r="G124" s="8">
@@ -12357,7 +12400,7 @@
       <c r="E125" s="8">
         <v>4177213</v>
       </c>
-      <c r="F125" s="18">
+      <c r="F125" s="16">
         <v>0.15579999999999999</v>
       </c>
       <c r="G125" s="8">
@@ -12386,7 +12429,7 @@
       <c r="E126" s="8">
         <v>4221329</v>
       </c>
-      <c r="F126" s="18">
+      <c r="F126" s="16">
         <v>0.17049246879159999</v>
       </c>
       <c r="G126" s="8">
@@ -12415,7 +12458,7 @@
       <c r="E127" s="8">
         <v>4263342</v>
       </c>
-      <c r="F127" s="18">
+      <c r="F127" s="16">
         <v>0.1679169694822</v>
       </c>
       <c r="G127" s="8">
@@ -12444,7 +12487,7 @@
       <c r="E128" s="8">
         <v>4306978</v>
       </c>
-      <c r="F128" s="18">
+      <c r="F128" s="16">
         <v>0.19409999999999999</v>
       </c>
       <c r="G128" s="8">
@@ -12457,7 +12500,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>44051</v>
       </c>
@@ -12473,7 +12516,7 @@
       <c r="E129" s="8">
         <v>4329258</v>
       </c>
-      <c r="F129" s="18">
+      <c r="F129" s="16">
         <v>0.2031</v>
       </c>
       <c r="G129" s="8">
@@ -12486,7 +12529,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>44052</v>
       </c>
@@ -12502,7 +12545,7 @@
       <c r="E130" s="8">
         <v>4379446</v>
       </c>
-      <c r="F130" s="18">
+      <c r="F130" s="16">
         <v>0.2099</v>
       </c>
       <c r="G130" s="8">
@@ -12515,7 +12558,7 @@
         <v>43012</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>44053</v>
       </c>
@@ -12531,7 +12574,7 @@
       <c r="E131" s="8">
         <v>4400049</v>
       </c>
-      <c r="F131" s="18">
+      <c r="F131" s="16">
         <v>0.2392</v>
       </c>
       <c r="G131" s="8">
@@ -12544,68 +12587,124 @@
         <v>36672</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>44054</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>274</v>
+      <c r="B132" s="8">
+        <v>4106360</v>
+      </c>
+      <c r="C132" s="8">
+        <v>299037</v>
+      </c>
+      <c r="D132" s="8">
+        <v>16409</v>
       </c>
       <c r="E132" s="8">
         <v>4421806</v>
       </c>
-      <c r="F132" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+      <c r="F132" s="16">
+        <v>0.245</v>
+      </c>
+      <c r="G132" s="8">
+        <v>28304</v>
+      </c>
+      <c r="H132" s="8">
+        <v>4294</v>
+      </c>
+      <c r="I132" s="8">
+        <v>34942</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>44055</v>
+      </c>
+      <c r="B133" s="8">
+        <v>4230763</v>
+      </c>
+      <c r="C133" s="8">
+        <v>302012</v>
+      </c>
+      <c r="D133" s="8">
+        <v>16699</v>
+      </c>
+      <c r="E133" s="8">
+        <v>4549474</v>
+      </c>
+      <c r="F133" s="16">
+        <v>0.1608</v>
+      </c>
+      <c r="G133" s="8">
+        <v>40898</v>
+      </c>
+      <c r="H133" s="8">
+        <v>3595</v>
+      </c>
+      <c r="I133" s="8">
+        <v>46878</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>44056</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E134" s="8">
+        <v>4611777</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="14"/>
-    </row>
-    <row r="135" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="15" t="s">
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+    </row>
+    <row r="137" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="14"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A134:J134"/>
-    <mergeCell ref="A135:J135"/>
+    <mergeCell ref="A136:I136"/>
+    <mergeCell ref="A137:I137"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12618,8 +12717,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12629,10 +12728,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12647,7 +12746,7 @@
         <v>293</v>
       </c>
       <c r="B3" s="8">
-        <v>121338</v>
+        <v>122021</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -12655,7 +12754,7 @@
         <v>294</v>
       </c>
       <c r="B4" s="8">
-        <v>4300468</v>
+        <v>4489756</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -12663,14 +12762,14 @@
         <v>295</v>
       </c>
       <c r="B5" s="8">
-        <v>4421806</v>
+        <v>4611777</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12683,31 +12782,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E4D5F6-B5CB-4977-8B06-0B434E3AB353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EBBCFA-5609-4556-B1C7-3FFC5B496C6D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.90625" style="12"/>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="14"/>
+    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>292</v>
@@ -12715,25 +12813,25 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B3" s="8">
-        <v>15569</v>
+        <v>16699</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B4" s="8">
-        <v>2432</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12751,7 +12849,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -12762,10 +12860,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12780,7 +12878,7 @@
         <v>299</v>
       </c>
       <c r="B3" s="8">
-        <v>295617</v>
+        <v>302012</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -12788,14 +12886,14 @@
         <v>300</v>
       </c>
       <c r="B4" s="8">
-        <v>19800</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12813,7 +12911,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -12824,10 +12922,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12842,7 +12940,7 @@
         <v>303</v>
       </c>
       <c r="B3" s="4">
-        <v>7216</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -12850,7 +12948,7 @@
         <v>304</v>
       </c>
       <c r="B4" s="4">
-        <v>54372</v>
+        <v>54919</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -12858,7 +12956,7 @@
         <v>305</v>
       </c>
       <c r="B5" s="4">
-        <v>12696</v>
+        <v>11179</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -12866,7 +12964,7 @@
         <v>306</v>
       </c>
       <c r="B6" s="4">
-        <v>1252</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -12874,14 +12972,14 @@
         <v>307</v>
       </c>
       <c r="B7" s="4">
-        <v>6924</v>
+        <v>6828</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12895,11 +12993,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C36" sqref="C36"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -12911,11 +13009,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -14358,17 +14456,39 @@
         <v>7216</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+    <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>131</v>
+      </c>
+      <c r="B133" s="6">
+        <v>44055</v>
+      </c>
+      <c r="C133" s="4">
+        <v>7028</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>132</v>
+      </c>
+      <c r="B134" s="6">
+        <v>44056</v>
+      </c>
+      <c r="C134" s="4">
+        <v>6879</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A136:C136"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
